--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207FA83-8A2F-45A4-ABF4-D30F9AAE4532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D50A19B-5731-4163-BEBF-695B97656B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -40,15 +40,6 @@
   </si>
   <si>
     <t>Demosalesmanager</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Fetched 1 from app</t>
-  </si>
-  <si>
-    <t>Fetched 2 from app</t>
   </si>
 </sst>
 </file>
@@ -396,47 +387,38 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D50A19B-5731-4163-BEBF-695B97656B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AD7312-59BC-4D4F-9E5C-E54784EFF7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,28 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Username</t>
+    <t>Molecule</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>DemoCSR</t>
-  </si>
-  <si>
-    <t>crmsfa</t>
-  </si>
-  <si>
-    <t>Demosalesmanager</t>
+    <t>TEICOPLANIN 400MG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,14 +49,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,18 +77,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,49 +363,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="makaia@testleaf.com" xr:uid="{4AD7E1C0-64ED-4E69-8382-C1EADD4D311E}"/>
-    <hyperlink ref="A3" r:id="rId2" display="makaia@testleaf.com" xr:uid="{C3BC5F41-BE35-4FB2-B8DD-7779B4F214E8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AD7312-59BC-4D4F-9E5C-E54784EFF7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B3D2B-EB5A-4EA2-B009-7B189AC69E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Molecule</t>
   </si>
   <si>
-    <t>TEICOPLANIN 400MG</t>
+    <t>DOXYCYCLINE 100MG</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59B3D2B-EB5A-4EA2-B009-7B189AC69E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E043C3-5744-4D63-A88F-4912DBBE2D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Molecule</t>
   </si>
   <si>
+    <t>VANCOMYCIN 1GM</t>
+  </si>
+  <si>
     <t>DOXYCYCLINE 100MG</t>
+  </si>
+  <si>
+    <t>MEROPENEM 1GM</t>
+  </si>
+  <si>
+    <t>CEFTRIAXONE 1GM</t>
+  </si>
+  <si>
+    <t>CLINDAMYCIN 600MG</t>
+  </si>
+  <si>
+    <t>TEICOPLANIN 400MG</t>
+  </si>
+  <si>
+    <t>LINEZOLID 600MG/300ML</t>
+  </si>
+  <si>
+    <t>TIGECYCLINE 50MG</t>
   </si>
 </sst>
 </file>
@@ -363,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,7 +402,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E043C3-5744-4D63-A88F-4912DBBE2D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62869DCC-247D-4D0E-A0FB-0D3CD63095E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/SourceData.xlsx
+++ b/Data/SourceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\eclipse-workspace\QATasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62869DCC-247D-4D0E-A0FB-0D3CD63095E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D5AEA7-351F-40CD-9B9B-10607C382A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Molecule</t>
   </si>
   <si>
-    <t>VANCOMYCIN 1GM</t>
-  </si>
-  <si>
-    <t>DOXYCYCLINE 100MG</t>
-  </si>
-  <si>
-    <t>MEROPENEM 1GM</t>
-  </si>
-  <si>
     <t>CEFTRIAXONE 1GM</t>
-  </si>
-  <si>
-    <t>CLINDAMYCIN 600MG</t>
-  </si>
-  <si>
-    <t>TEICOPLANIN 400MG</t>
-  </si>
-  <si>
-    <t>LINEZOLID 600MG/300ML</t>
-  </si>
-  <si>
-    <t>TIGECYCLINE 50MG</t>
   </si>
 </sst>
 </file>
@@ -384,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,42 +381,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
